--- a/Board Files/BOM.xlsx
+++ b/Board Files/BOM.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="74">
   <si>
     <t>Name</t>
   </si>
@@ -156,13 +156,103 @@
   </si>
   <si>
     <t>http://www.microchip.com/wwwproducts/Devices.aspx?dDocName=en024903</t>
+  </si>
+  <si>
+    <t>USB FLASH</t>
+  </si>
+  <si>
+    <t>LDO Voltage Regulators 800mA Fixed Output</t>
+  </si>
+  <si>
+    <t>579-TC2117-3.3VDBTR</t>
+  </si>
+  <si>
+    <t>TC2117-3.3VDBTR</t>
+  </si>
+  <si>
+    <t>http://www.mouser.com/ds/2/268/21665b-63633.pdf</t>
+  </si>
+  <si>
+    <t>Low Signal Relays - PCB 5VDC Non-latching 1 coil 150mW D2n</t>
+  </si>
+  <si>
+    <t>655-V23105A5001A201</t>
+  </si>
+  <si>
+    <t>TE Connectivity / P&amp;B</t>
+  </si>
+  <si>
+    <t>V23105A5001A201</t>
+  </si>
+  <si>
+    <t>http://www.mouser.com/catalog/catalogusd/648/1955.pdf</t>
+  </si>
+  <si>
+    <t>DC Power Connectors Power Jacks</t>
+  </si>
+  <si>
+    <t>490-PJ-035D</t>
+  </si>
+  <si>
+    <t>CUI</t>
+  </si>
+  <si>
+    <t>PJ-035D</t>
+  </si>
+  <si>
+    <t>http://www.mouser.com/ds/2/670/pj-035d-515867.pdf</t>
+  </si>
+  <si>
+    <t>Solar Block</t>
+  </si>
+  <si>
+    <t>652-SRP7050TA-680M</t>
+  </si>
+  <si>
+    <t>Bourns</t>
+  </si>
+  <si>
+    <t>SRP7050TA-680M</t>
+  </si>
+  <si>
+    <t>http://www.mouser.com/ds/2/54/rp7050ta136cf42b90e165f58a72ff000066632f-765097.pdf</t>
+  </si>
+  <si>
+    <t>3.3V SYSTEM</t>
+  </si>
+  <si>
+    <t>LDO Voltage Regulators Mil Enh Cap-Free NMOS 400-mA LDO Reg</t>
+  </si>
+  <si>
+    <t>595-TPS73633MDBVREP</t>
+  </si>
+  <si>
+    <t>TPS73633MDBVREP</t>
+  </si>
+  <si>
+    <t>http://www.mouser.com/ds/2/405/tps73633-ep-556768.pdf</t>
+  </si>
+  <si>
+    <t>5V SYSTEM</t>
+  </si>
+  <si>
+    <t>595-TPS61030PWPR</t>
+  </si>
+  <si>
+    <t>TPS61030PWPR</t>
+  </si>
+  <si>
+    <t>http://www.mouser.com/ds/2/405/tps61030-557444.pdf</t>
+  </si>
+  <si>
+    <t>Voltage Regulators - Switching Regulators 1Adj 1-A 96% Eff Boost Converter</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -190,6 +280,27 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -212,7 +323,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
@@ -221,6 +332,18 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -502,10 +625,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:I32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -577,166 +700,338 @@
         <v>0.97</v>
       </c>
     </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B3" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" t="s">
+        <v>58</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>0.95</v>
+      </c>
+    </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="1" t="s">
+      <c r="C4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="H4">
-        <v>1</v>
-      </c>
-      <c r="I4">
+      <c r="H4" s="5">
+        <v>1</v>
+      </c>
+      <c r="I4" s="5">
         <v>3.27</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
+      <c r="A5" s="5"/>
+      <c r="B5" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="1" t="s">
+      <c r="C5" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="H5">
-        <v>1</v>
-      </c>
-      <c r="I5">
+      <c r="H5" s="5">
+        <v>1</v>
+      </c>
+      <c r="I5" s="5">
         <v>0.42</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="24" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
+      <c r="A6" s="5"/>
+      <c r="B6" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="1" t="s">
+      <c r="C6" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F6" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G6" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="H6">
-        <v>1</v>
-      </c>
-      <c r="I6">
+      <c r="H6" s="5">
+        <v>1</v>
+      </c>
+      <c r="I6" s="5">
         <v>0.82</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="24" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
+      <c r="A7" s="5"/>
+      <c r="B7" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" s="1" t="s">
+      <c r="C7" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G7" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="H7">
-        <v>1</v>
-      </c>
-      <c r="I7">
+      <c r="H7" s="5">
+        <v>1</v>
+      </c>
+      <c r="I7" s="5">
         <v>0.95</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
+      <c r="A8" s="5"/>
+      <c r="B8" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" s="1" t="s">
+      <c r="C8" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E8" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="F8" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="G8" t="s">
+      <c r="G8" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="H8">
-        <v>1</v>
-      </c>
-      <c r="I8">
+      <c r="H8" s="5">
+        <v>1</v>
+      </c>
+      <c r="I8" s="5">
         <v>0.1</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>69</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="G9" t="s">
+        <v>72</v>
+      </c>
+      <c r="H9" s="5">
+        <v>1</v>
+      </c>
+      <c r="I9" s="5">
+        <v>2.98</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>38</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B25" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" s="1" t="s">
+      <c r="C25" t="s">
+        <v>8</v>
+      </c>
+      <c r="D25" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="E25" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="F25" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="G10" t="s">
+      <c r="G25" t="s">
         <v>43</v>
       </c>
-      <c r="H10">
-        <v>1</v>
-      </c>
-      <c r="I10">
+      <c r="H25">
+        <v>1</v>
+      </c>
+      <c r="I25">
         <v>0.6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B26" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C26" t="s">
+        <v>8</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="G26" t="s">
+        <v>53</v>
+      </c>
+      <c r="H26">
+        <v>1</v>
+      </c>
+      <c r="I26">
+        <v>1.55</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A30" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F30" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="G30" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="H30" s="5">
+        <v>1</v>
+      </c>
+      <c r="I30" s="5">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>64</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C31" t="s">
+        <v>8</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="G31" t="s">
+        <v>68</v>
+      </c>
+      <c r="H31">
+        <v>2</v>
+      </c>
+      <c r="I31">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="24" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>59</v>
+      </c>
+      <c r="B32" t="s">
+        <v>22</v>
+      </c>
+      <c r="C32" t="s">
+        <v>8</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="G32" t="s">
+        <v>63</v>
+      </c>
+      <c r="H32">
+        <v>1</v>
+      </c>
+      <c r="I32">
+        <v>1.1100000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -747,9 +1042,15 @@
     <hyperlink ref="E6" r:id="rId4" display="http://www.mouser.com/murataelectronics/"/>
     <hyperlink ref="E7" r:id="rId5" display="http://www.mouser.com/murataelectronics/"/>
     <hyperlink ref="E8" r:id="rId6" display="http://www.mouser.com/AVX/"/>
-    <hyperlink ref="E10" r:id="rId7" display="http://www.mouser.com/microchip/"/>
+    <hyperlink ref="E25" r:id="rId7" display="http://www.mouser.com/microchip/"/>
+    <hyperlink ref="E30" r:id="rId8" display="http://www.mouser.com/microchip/"/>
+    <hyperlink ref="E26" r:id="rId9" display="http://www.mouser.com/pandbrelays/"/>
+    <hyperlink ref="E3" r:id="rId10" display="http://www.mouser.com/cui-inc/"/>
+    <hyperlink ref="E32" r:id="rId11" display="http://www.mouser.com/bourns/"/>
+    <hyperlink ref="E31" r:id="rId12" display="http://www.mouser.com/Texas-Instruments/"/>
+    <hyperlink ref="E9" r:id="rId13" display="http://www.mouser.com/Texas-Instruments/"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId8"/>
+  <pageSetup orientation="portrait" r:id="rId14"/>
 </worksheet>
 </file>